--- a/spec/ASW/Eng/EGR/EGRVlv/EGRVlv_VDPosGov/EGRVlv_VDPosGov.xlsx
+++ b/spec/ASW/Eng/EGR/EGRVlv/EGRVlv_VDPosGov/EGRVlv_VDPosGov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\EGR\EGRVlv\EGRVlv_VDPosGov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C645CD8A-BBAA-4C38-B3AE-5A619C301D49}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3583E1A9-E358-4343-9DC2-C6C6D2BC03E5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -789,14 +789,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum:ECUState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ECUState.OFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Count2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -817,6 +809,13 @@
   </si>
   <si>
     <t>uint8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum: ECUPowerState</t>
+  </si>
+  <si>
+    <t>ECUPowerState.OFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1207,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1501,10 +1500,10 @@
         <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>35</v>
@@ -1972,7 +1971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2457,7 +2456,7 @@
         <v>245</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2575,7 +2574,7 @@
         <v>118</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2595,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>120</v>
@@ -2722,7 +2721,7 @@
         <v>126</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>127</v>
@@ -3291,7 +3290,7 @@
         <v>126</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>163</v>
@@ -3369,7 +3368,7 @@
         <v>126</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>169</v>
@@ -3444,7 +3443,7 @@
         <v>126</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>175</v>
@@ -3978,7 +3977,7 @@
         <v>5</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>217</v>
@@ -4056,7 +4055,7 @@
         <v>117</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>223</v>
@@ -4184,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>230</v>
@@ -4232,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>236</v>
@@ -4246,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>238</v>
@@ -4260,7 +4259,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>240</v>
@@ -4274,7 +4273,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>242</v>
@@ -4288,7 +4287,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>244</v>

--- a/spec/ASW/Eng/EGR/EGRVlv/EGRVlv_VDPosGov/EGRVlv_VDPosGov.xlsx
+++ b/spec/ASW/Eng/EGR/EGRVlv/EGRVlv_VDPosGov/EGRVlv_VDPosGov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\EGR\EGRVlv\EGRVlv_VDPosGov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3583E1A9-E358-4343-9DC2-C6C6D2BC03E5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14563D9C-9494-4E75-954D-A5D5BD881A03}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="255">
   <si>
     <t>Name</t>
   </si>
@@ -637,9 +637,6 @@
     <t>Negative window limit</t>
   </si>
   <si>
-    <t>EGRVlv_rDesEGR_CUR</t>
-  </si>
-  <si>
     <t>[1 25]</t>
   </si>
   <si>
@@ -647,12 +644,6 @@
   </si>
   <si>
     <t>Curve to calculation the desired value for the governor EGRVlv_rGovDesVal based on EGRVlv_r</t>
-  </si>
-  <si>
-    <t>EGRVlv_rDesEGR_CURX</t>
-  </si>
-  <si>
-    <t>Curve axis to calculation the desired value for the governor EGRVlv_rGovDesVal based on EGRVlv_r</t>
   </si>
   <si>
     <t>EGRVlv_iEff_CUR</t>
@@ -816,6 +807,10 @@
   </si>
   <si>
     <t>ECUPowerState.OFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGRVlv_rDesEGR_C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1206,7 +1201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1267,7 +1262,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>14</v>
@@ -1293,7 +1288,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>16</v>
@@ -1319,7 +1314,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>18</v>
@@ -1345,7 +1340,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>20</v>
@@ -1368,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>22</v>
@@ -1391,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>24</v>
@@ -1437,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>29</v>
@@ -1463,7 +1458,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>31</v>
@@ -1500,10 +1495,10 @@
         <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>35</v>
@@ -1628,7 +1623,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>41</v>
@@ -1654,7 +1649,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>43</v>
@@ -1680,7 +1675,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>45</v>
@@ -1706,7 +1701,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>47</v>
@@ -1732,7 +1727,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>49</v>
@@ -1758,7 +1753,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>51</v>
@@ -1784,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>53</v>
@@ -1810,7 +1805,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>55</v>
@@ -1836,7 +1831,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>57</v>
@@ -1859,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>59</v>
@@ -1885,7 +1880,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>61</v>
@@ -1908,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>63</v>
@@ -1954,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>67</v>
@@ -2032,7 +2027,7 @@
         <v>69</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>70</v>
@@ -2081,7 +2076,7 @@
         <v>74</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>75</v>
@@ -2107,7 +2102,7 @@
         <v>77</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>78</v>
@@ -2133,7 +2128,7 @@
         <v>77</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>80</v>
@@ -2182,7 +2177,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>84</v>
@@ -2208,7 +2203,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>86</v>
@@ -2378,7 +2373,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>102</v>
@@ -2404,7 +2399,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>104</v>
@@ -2453,10 +2448,10 @@
         <v>13</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2574,7 +2569,7 @@
         <v>118</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2594,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>120</v>
@@ -2643,7 +2638,7 @@
         <v>13</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>124</v>
@@ -2658,10 +2653,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2721,7 +2716,7 @@
         <v>126</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>127</v>
@@ -2747,7 +2742,7 @@
         <v>77</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>129</v>
@@ -2773,7 +2768,7 @@
         <v>69</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>131</v>
@@ -2799,7 +2794,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>133</v>
@@ -2825,7 +2820,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>135</v>
@@ -2851,7 +2846,7 @@
         <v>74</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>137</v>
@@ -2877,7 +2872,7 @@
         <v>74</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>139</v>
@@ -2903,7 +2898,7 @@
         <v>74</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>141</v>
@@ -2929,7 +2924,7 @@
         <v>77</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>137</v>
@@ -2955,7 +2950,7 @@
         <v>77</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>144</v>
@@ -2981,7 +2976,7 @@
         <v>77</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>141</v>
@@ -3007,7 +3002,7 @@
         <v>77</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>147</v>
@@ -3033,7 +3028,7 @@
         <v>77</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>149</v>
@@ -3059,7 +3054,7 @@
         <v>77</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>137</v>
@@ -3085,7 +3080,7 @@
         <v>77</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>152</v>
@@ -3111,7 +3106,7 @@
         <v>77</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>141</v>
@@ -3160,7 +3155,7 @@
         <v>74</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>147</v>
@@ -3186,7 +3181,7 @@
         <v>74</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>149</v>
@@ -3212,7 +3207,7 @@
         <v>77</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>147</v>
@@ -3238,7 +3233,7 @@
         <v>77</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>149</v>
@@ -3264,7 +3259,7 @@
         <v>13</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>161</v>
@@ -3290,7 +3285,7 @@
         <v>126</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>163</v>
@@ -3316,7 +3311,7 @@
         <v>13</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>165</v>
@@ -3342,7 +3337,7 @@
         <v>13</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>167</v>
@@ -3368,7 +3363,7 @@
         <v>126</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>169</v>
@@ -3391,7 +3386,7 @@
         <v>50</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>171</v>
@@ -3443,7 +3438,7 @@
         <v>126</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>175</v>
@@ -3469,7 +3464,7 @@
         <v>13</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>177</v>
@@ -3495,7 +3490,7 @@
         <v>13</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>179</v>
@@ -3521,7 +3516,7 @@
         <v>13</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>181</v>
@@ -3547,7 +3542,7 @@
         <v>13</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>183</v>
@@ -3570,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>67</v>
@@ -3596,7 +3591,7 @@
         <v>77</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>186</v>
@@ -3622,7 +3617,7 @@
         <v>13</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>188</v>
@@ -3648,7 +3643,7 @@
         <v>13</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>190</v>
@@ -3720,7 +3715,7 @@
         <v>13</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>196</v>
@@ -3746,15 +3741,15 @@
         <v>13</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="B43" s="5">
         <v>-100</v>
@@ -3763,42 +3758,42 @@
         <v>100</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>201</v>
+        <v>12</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="5">
+        <v>-12800</v>
+      </c>
+      <c r="C44" s="5">
+        <v>12799.6</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B44" s="5">
-        <v>-100</v>
-      </c>
-      <c r="C44" s="5">
-        <v>100</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>201</v>
-      </c>
       <c r="F44" s="4" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>204</v>
@@ -3809,30 +3804,30 @@
         <v>205</v>
       </c>
       <c r="B45" s="5">
-        <v>-12800</v>
+        <v>-100</v>
       </c>
       <c r="C45" s="5">
-        <v>12799.6</v>
+        <v>100</v>
       </c>
       <c r="D45" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="F45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B46" s="5">
         <v>-100</v>
@@ -3841,151 +3836,151 @@
         <v>100</v>
       </c>
       <c r="D46" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="5">
+        <v>-12800</v>
+      </c>
+      <c r="C47" s="5">
+        <v>12799.6</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B47" s="5">
-        <v>-100</v>
-      </c>
-      <c r="C47" s="5">
-        <v>100</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B48" s="5">
-        <v>-12800</v>
+        <v>-100</v>
       </c>
       <c r="C48" s="5">
-        <v>12799.6</v>
+        <v>100</v>
       </c>
       <c r="D48" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="F48" s="4" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>89</v>
+        <v>242</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B49" s="5">
-        <v>-100</v>
+        <v>-12800</v>
       </c>
       <c r="C49" s="5">
-        <v>100</v>
+        <v>12799.6</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B50" s="5">
-        <v>-12800</v>
+        <v>0</v>
       </c>
       <c r="C50" s="5">
-        <v>12799.6</v>
+        <v>65535</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>88</v>
+        <v>12</v>
+      </c>
+      <c r="E50" s="5">
+        <v>5</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>89</v>
+        <v>246</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B51" s="5">
+        <v>-100</v>
+      </c>
+      <c r="C51" s="5">
+        <v>100</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="5">
+        <v>10</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="B51" s="5">
-        <v>0</v>
-      </c>
-      <c r="C51" s="5">
-        <v>65535</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="5">
-        <v>5</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B52" s="5">
         <v>-100</v>
@@ -3997,139 +3992,113 @@
         <v>12</v>
       </c>
       <c r="E52" s="5">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0</v>
+      </c>
+      <c r="C53" s="5">
+        <v>65535</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="5">
+        <v>50</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="B53" s="5">
-        <v>-100</v>
-      </c>
-      <c r="C53" s="5">
-        <v>100</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="5">
-        <v>-10</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="B54" s="5">
-        <v>0</v>
-      </c>
-      <c r="C54" s="5">
-        <v>65535</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="5">
-        <v>50</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" s="5">
+        <v>-100</v>
+      </c>
+      <c r="C55" s="5">
+        <v>100</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="B55" s="5">
-        <v>0</v>
-      </c>
-      <c r="C55" s="5">
-        <v>1</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="5">
-        <v>0</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B56" s="5">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C56" s="5">
-        <v>100</v>
+        <v>99.998500000000007</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="5">
-        <v>0</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B57" s="5">
-        <v>0</v>
-      </c>
-      <c r="C57" s="5">
-        <v>99.998500000000007</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="5">
-        <v>50</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H57" s="4" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4177,21 +4146,21 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B3" s="5">
         <v>-1</v>
@@ -4200,15 +4169,15 @@
         <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -4217,80 +4186,80 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B8" s="5">
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B9" s="5">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
